--- a/rp_cricket_stats.xlsx
+++ b/rp_cricket_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tech\Medium projects\rp underarm cricket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE2985-5E66-4ACA-893D-FCEBE9F28A0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EA309-9AD6-4F0E-9346-598D52B37D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="1620" windowWidth="9645" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
   <si>
     <t>match</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>anuj</t>
+  </si>
+  <si>
+    <t>wicket</t>
+  </si>
+  <si>
+    <t>catch</t>
+  </si>
+  <si>
+    <t>run-out</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>balls</t>
+  </si>
+  <si>
+    <t>not-out</t>
   </si>
 </sst>
 </file>
@@ -375,15 +393,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -394,10 +413,25 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -407,11 +441,26 @@
       <c r="C2">
         <v>42</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -421,11 +470,26 @@
       <c r="C3">
         <v>24</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -435,11 +499,26 @@
       <c r="C4">
         <v>14</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -449,11 +528,26 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -463,11 +557,26 @@
       <c r="C6">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -477,11 +586,26 @@
       <c r="C7">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -491,11 +615,26 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -505,11 +644,26 @@
       <c r="C9">
         <v>0</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -519,11 +673,26 @@
       <c r="C10">
         <v>10</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -533,11 +702,26 @@
       <c r="C11">
         <v>14</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -547,11 +731,26 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -561,11 +760,26 @@
       <c r="C13">
         <v>16</v>
       </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -575,11 +789,26 @@
       <c r="C14">
         <v>0</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>14</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
@@ -589,11 +818,26 @@
       <c r="C15">
         <v>6</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -603,11 +847,26 @@
       <c r="C16">
         <v>2</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
@@ -617,11 +876,26 @@
       <c r="C17">
         <v>7</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
@@ -631,11 +905,26 @@
       <c r="C18">
         <v>0</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -645,11 +934,26 @@
       <c r="C19">
         <v>1</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
@@ -659,11 +963,26 @@
       <c r="C20">
         <v>10</v>
       </c>
-      <c r="D20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -673,11 +992,26 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -687,11 +1021,26 @@
       <c r="C22">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -701,11 +1050,26 @@
       <c r="C23">
         <v>0</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -715,11 +1079,26 @@
       <c r="C24">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>14</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -729,11 +1108,26 @@
       <c r="C25">
         <v>22</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -743,11 +1137,26 @@
       <c r="C26">
         <v>7</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>6</v>
       </c>
@@ -757,11 +1166,26 @@
       <c r="C27">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" t="s">
+        <v>14</v>
+      </c>
+      <c r="H27" t="s">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>6</v>
       </c>
@@ -771,11 +1195,26 @@
       <c r="C28">
         <v>0</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -785,11 +1224,26 @@
       <c r="C29">
         <v>3</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>6</v>
       </c>
@@ -799,11 +1253,26 @@
       <c r="C30">
         <v>20</v>
       </c>
-      <c r="D30" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -813,8 +1282,603 @@
       <c r="C31">
         <v>0</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>14</v>
+      </c>
+      <c r="H31" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G33" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" t="s">
+        <v>14</v>
+      </c>
+      <c r="I33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
+      </c>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>9</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>7</v>
+      </c>
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <v>14</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>14</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>8</v>
+      </c>
+      <c r="I36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>9</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+      <c r="H37" t="s">
+        <v>14</v>
+      </c>
+      <c r="I37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>14</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="G39" t="s">
+        <v>3</v>
+      </c>
+      <c r="H39" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41">
+        <v>19</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41" t="s">
+        <v>5</v>
+      </c>
+      <c r="F41" t="s">
+        <v>3</v>
+      </c>
+      <c r="G41" t="s">
+        <v>14</v>
+      </c>
+      <c r="H41" t="s">
+        <v>14</v>
+      </c>
+      <c r="I41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>9</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" t="s">
+        <v>14</v>
+      </c>
+      <c r="H43" t="s">
+        <v>14</v>
+      </c>
+      <c r="I43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>9</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>18</v>
+      </c>
+      <c r="D44">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44" t="s">
+        <v>14</v>
+      </c>
+      <c r="G44" t="s">
+        <v>14</v>
+      </c>
+      <c r="H44" t="s">
+        <v>14</v>
+      </c>
+      <c r="I44" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45">
+        <v>15</v>
+      </c>
+      <c r="D45">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>9</v>
+      </c>
+      <c r="B46" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46">
+        <v>18</v>
+      </c>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46" t="s">
+        <v>14</v>
+      </c>
+      <c r="G46" t="s">
+        <v>14</v>
+      </c>
+      <c r="H46" t="s">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>10</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>16</v>
+      </c>
+      <c r="D47">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>14</v>
+      </c>
+      <c r="G47" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" t="s">
+        <v>14</v>
+      </c>
+      <c r="H48" t="s">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>15</v>
+      </c>
+      <c r="D49">
+        <v>14</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>10</v>
+      </c>
+      <c r="G49" t="s">
+        <v>14</v>
+      </c>
+      <c r="H49" t="s">
+        <v>14</v>
+      </c>
+      <c r="I49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>10</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>10</v>
+      </c>
+      <c r="G50" t="s">
+        <v>3</v>
+      </c>
+      <c r="H50" t="s">
+        <v>14</v>
+      </c>
+      <c r="I50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>10</v>
+      </c>
+      <c r="B51" t="s">
+        <v>10</v>
+      </c>
+      <c r="C51">
+        <v>22</v>
+      </c>
+      <c r="D51">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="H51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/rp_cricket_stats.xlsx
+++ b/rp_cricket_stats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tech\Medium projects\rp underarm cricket\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\tech\Medium projects\rp cricket\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EA309-9AD6-4F0E-9346-598D52B37D54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF7CC2F7-B236-4DFB-99B0-33B436714012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="17">
   <si>
     <t>match</t>
   </si>
@@ -393,11 +393,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I51"/>
+  <dimension ref="A1:I71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1881,6 +1881,586 @@
         <v>14</v>
       </c>
     </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>11</v>
+      </c>
+      <c r="D52">
+        <v>12</v>
+      </c>
+      <c r="E52" t="s">
+        <v>5</v>
+      </c>
+      <c r="F52" t="s">
+        <v>14</v>
+      </c>
+      <c r="G52" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>6</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
+        <v>14</v>
+      </c>
+      <c r="G53" t="s">
+        <v>14</v>
+      </c>
+      <c r="H53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
+        <v>14</v>
+      </c>
+      <c r="G54" t="s">
+        <v>14</v>
+      </c>
+      <c r="H54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>7</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
+        <v>14</v>
+      </c>
+      <c r="G55" t="s">
+        <v>14</v>
+      </c>
+      <c r="H55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>8</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
+        <v>14</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>14</v>
+      </c>
+      <c r="I56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>12</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>3</v>
+      </c>
+      <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
+        <v>8</v>
+      </c>
+      <c r="G57" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>12</v>
+      </c>
+      <c r="B58" t="s">
+        <v>6</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" t="s">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>11</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>3</v>
+      </c>
+      <c r="H59" t="s">
+        <v>14</v>
+      </c>
+      <c r="I59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>12</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60">
+        <v>14</v>
+      </c>
+      <c r="D60">
+        <v>15</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+      <c r="F60" t="s">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>12</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
+        <v>8</v>
+      </c>
+      <c r="G61" t="s">
+        <v>8</v>
+      </c>
+      <c r="H61" t="s">
+        <v>14</v>
+      </c>
+      <c r="I61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>13</v>
+      </c>
+      <c r="B62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62">
+        <v>20</v>
+      </c>
+      <c r="D62">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>14</v>
+      </c>
+      <c r="G62" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" t="s">
+        <v>14</v>
+      </c>
+      <c r="I62" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+      <c r="D63">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
+        <v>14</v>
+      </c>
+      <c r="G63" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" t="s">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>13</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
+        <v>14</v>
+      </c>
+      <c r="G64" t="s">
+        <v>14</v>
+      </c>
+      <c r="H64" t="s">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>13</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65">
+        <v>11</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>14</v>
+      </c>
+      <c r="H65" t="s">
+        <v>14</v>
+      </c>
+      <c r="I65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>13</v>
+      </c>
+      <c r="B66" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
+        <v>14</v>
+      </c>
+      <c r="G66" t="s">
+        <v>14</v>
+      </c>
+      <c r="H66" t="s">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>14</v>
+      </c>
+      <c r="B67" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
+        <v>14</v>
+      </c>
+      <c r="G67" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" t="s">
+        <v>14</v>
+      </c>
+      <c r="I67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>14</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" t="s">
+        <v>14</v>
+      </c>
+      <c r="H68" t="s">
+        <v>14</v>
+      </c>
+      <c r="I68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>14</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
+        <v>3</v>
+      </c>
+      <c r="G69" t="s">
+        <v>10</v>
+      </c>
+      <c r="H69" t="s">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70">
+        <v>8</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="s">
+        <v>3</v>
+      </c>
+      <c r="H70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>10</v>
+      </c>
+      <c r="C71">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>13</v>
+      </c>
+      <c r="E71" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>14</v>
+      </c>
+      <c r="G71" t="s">
+        <v>14</v>
+      </c>
+      <c r="H71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I71" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
